--- a/output_table.xlsx
+++ b/output_table.xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>모델</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
